--- a/Project_python/out/Top2vec/topics_map.xlsx
+++ b/Project_python/out/Top2vec/topics_map.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:1.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.563|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.437|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -466,7 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:1.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:1.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:1.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:1.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>x1:0.849|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.151|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:1.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:1.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:1.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:1.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:1.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:1.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:1.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:1.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:1.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:1.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:1.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:1.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:1.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:1.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:1.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:1.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:1.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:1.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:1.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:1.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:1.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:1.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>x1:0.849|x2:1.000|x3:2.000|x4:1.000|x5:1.000|x6:1.000|x7:1.000|x8:1.000|x9:1.000|x10:1.151|x11:1.000|x12:1.000|x13:1.000|x14:1.000|x15:1.000|x16:1.000|x17:0.000</t>
+          <t>x1:1.000|x2:1.000|x3:2.000|x4:1.000|x5:1.000|x6:1.000|x7:0.563|x8:1.000|x9:1.000|x10:1.000|x11:1.000|x12:0.437|x13:1.000|x14:1.000|x15:1.000|x16:1.000|x17:0.000</t>
         </is>
       </c>
     </row>

--- a/Project_python/out/Top2vec/topics_map.xlsx
+++ b/Project_python/out/Top2vec/topics_map.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:1.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.198|x2:0.000|x3:0.460|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.342|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -456,7 +456,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.563|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.437|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.220|x5:0.000|x6:0.317|x7:0.000|x8:0.151|x9:0.000|x10:0.313|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -466,7 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:1.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.168|x12:0.258|x13:0.000|x14:0.574|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:1.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.393|x3:0.332|x4:0.275|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:1.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.412|x4:0.351|x5:0.237|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>x1:1.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.597|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.403|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:1.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.564|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.309|x16:0.127|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:1.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.432|x4:0.000|x5:0.411|x6:0.156|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:1.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.189|x5:0.258|x6:0.000|x7:0.552|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:1.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.237|x10:0.147|x11:0.000|x12:0.615|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:1.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.290|x11:0.135|x12:0.000|x13:0.575|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:1.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.276|x6:0.263|x7:0.000|x8:0.461|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:1.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.133|x8:0.255|x9:0.391|x10:0.220|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:1.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.369|x10:0.000|x11:0.631|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:1.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.230|x7:0.238|x8:0.174|x9:0.358|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:1.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.367|x12:0.248|x13:0.000|x14:0.000|x15:0.000|x16:0.385|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>x1:1.000|x2:1.000|x3:2.000|x4:1.000|x5:1.000|x6:1.000|x7:0.563|x8:1.000|x9:1.000|x10:1.000|x11:1.000|x12:0.437|x13:1.000|x14:1.000|x15:1.000|x16:1.000|x17:0.000</t>
+          <t>x1:0.795|x2:0.957|x3:1.637|x4:1.035|x5:1.183|x6:0.966|x7:0.923|x8:1.041|x9:1.356|x10:0.970|x11:1.302|x12:1.121|x13:0.575|x14:0.574|x15:0.712|x16:0.854|x17:0.000</t>
         </is>
       </c>
     </row>

--- a/Project_python/out/Top2vec/topics_map.xlsx
+++ b/Project_python/out/Top2vec/topics_map.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>x1:0.198|x2:0.000|x3:0.460|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.342|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:1.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -456,7 +456,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.220|x5:0.000|x6:0.317|x7:0.000|x8:0.151|x9:0.000|x10:0.313|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:1.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -466,7 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.168|x12:0.258|x13:0.000|x14:0.574|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:1.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.393|x3:0.332|x4:0.275|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:1.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.412|x4:0.351|x5:0.237|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:1.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>x1:0.597|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.403|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:1.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.564|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.309|x16:0.127|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:1.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.432|x4:0.000|x5:0.411|x6:0.156|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:1.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.189|x5:0.258|x6:0.000|x7:0.552|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:1.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.237|x10:0.147|x11:0.000|x12:0.615|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:1.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.290|x11:0.135|x12:0.000|x13:0.575|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:1.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.276|x6:0.263|x7:0.000|x8:0.461|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:1.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.133|x8:0.255|x9:0.391|x10:0.220|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:1.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.369|x10:0.000|x11:0.631|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:1.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.230|x7:0.238|x8:0.174|x9:0.358|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:1.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.367|x12:0.248|x13:0.000|x14:0.000|x15:0.000|x16:0.385|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:1.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>x1:0.795|x2:0.957|x3:1.637|x4:1.035|x5:1.183|x6:0.966|x7:0.923|x8:1.041|x9:1.356|x10:0.970|x11:1.302|x12:1.121|x13:0.575|x14:0.574|x15:0.712|x16:0.854|x17:0.000</t>
+          <t>x1:1.000|x2:1.000|x3:1.000|x4:1.000|x5:1.000|x6:1.000|x7:1.000|x8:1.000|x9:1.000|x10:1.000|x11:1.000|x12:1.000|x13:1.000|x14:1.000|x15:1.000|x16:1.000|x17:0.000</t>
         </is>
       </c>
     </row>

--- a/Project_python/out/Top2vec/topics_map.xlsx
+++ b/Project_python/out/Top2vec/topics_map.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +456,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:1.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:1.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -466,7 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:1.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:1.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:1.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:1.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:1.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:1.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:1.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:1.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:1.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:1.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:1.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:1.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:1.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:1.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:1.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:1.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:1.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:1.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:1.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:1.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:1.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:1.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>

--- a/Project_python/out/Top2vec/topics_map.xlsx
+++ b/Project_python/out/Top2vec/topics_map.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:1.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.157|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.843|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -466,7 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:1.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:1.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:1.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:1.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:1.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.282|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.718|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:1.000|x17:0.000</t>
+          <t>x1:0.000|x2:1.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:1.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:1.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>x1:1.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:1.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:1.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:1.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:1.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:1.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:1.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:1.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:1.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:1.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:1.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:1.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -596,17 +596,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:1.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>x1:1.000|x2:1.000|x3:1.000|x4:1.000|x5:1.000|x6:1.000|x7:1.000|x8:1.000|x9:1.000|x10:1.000|x11:1.000|x12:1.000|x13:1.000|x14:1.000|x15:1.000|x16:1.000|x17:0.000</t>
+          <t>x1:0.439|x2:1.000|x3:1.000|x4:1.000|x5:1.000|x6:1.000|x7:1.000|x8:0.718|x9:1.000|x10:1.000|x11:1.000|x12:1.000|x13:0.843|x14:1.000|x15:1.000|x16:1.000|x17:0.000</t>
         </is>
       </c>
     </row>

--- a/Project_python/out/Top2vec/topics_map.xlsx
+++ b/Project_python/out/Top2vec/topics_map.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:1.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.328|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.672|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -456,7 +456,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>x1:0.157|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.843|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:1.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -466,7 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:1.000|x17:0.000</t>
+          <t>x1:0.159|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.841|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:1.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.433|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.567|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:1.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:1.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>x1:0.282|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.718|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.134|x9:0.866|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:1.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:1.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:1.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:1.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:1.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:1.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:1.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:1.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:1.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:1.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -586,17 +586,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:1.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>x1:0.439|x2:1.000|x3:1.000|x4:1.000|x5:1.000|x6:1.000|x7:1.000|x8:0.718|x9:1.000|x10:1.000|x11:1.000|x12:1.000|x13:0.843|x14:1.000|x15:1.000|x16:1.000|x17:0.000</t>
+          <t>x1:0.592|x2:1.000|x3:1.000|x4:1.000|x5:1.000|x6:1.000|x7:1.000|x8:0.701|x9:0.866|x10:0.328|x11:1.000|x12:1.000|x13:0.841|x14:1.000|x15:1.000|x16:0.672|x17:0.000</t>
         </is>
       </c>
     </row>

--- a/Project_python/out/Top2vec/topics_map.xlsx
+++ b/Project_python/out/Top2vec/topics_map.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.328|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.672|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.453|x8:0.000|x9:0.000|x10:0.000|x11:0.278|x12:0.269|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -466,7 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>x1:0.159|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.841|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:1.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>x1:0.433|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.567|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:1.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:1.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:1.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.134|x9:0.866|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:1.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:1.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:1.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:1.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:1.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:1.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:1.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:1.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:1.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:1.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:1.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:1.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:1.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:1.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:1.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>x1:0.592|x2:1.000|x3:1.000|x4:1.000|x5:1.000|x6:1.000|x7:1.000|x8:0.701|x9:0.866|x10:0.328|x11:1.000|x12:1.000|x13:0.841|x14:1.000|x15:1.000|x16:0.672|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:1.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>x1:1.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:1.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>x1:1.000|x2:1.000|x3:1.000|x4:1.000|x5:1.000|x6:1.000|x7:1.453|x8:1.000|x9:1.000|x10:1.000|x11:1.278|x12:1.269|x13:1.000|x14:1.000|x15:1.000|x16:1.000|x17:0.000</t>
         </is>
       </c>
     </row>
